--- a/biology/Neurosciences/Réflexe_ostéotendineux/Réflexe_ostéotendineux.xlsx
+++ b/biology/Neurosciences/Réflexe_ostéotendineux/Réflexe_ostéotendineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9flexe_ost%C3%A9otendineux</t>
+          <t>Réflexe_ostéotendineux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le réflexe ostéotendineux (ou réflexe d'extension) est la contraction réflexe d'un muscle étiré brusquement, composé de deux éléments : une voie monosynaptique excitatrice ou « réflexe myotatique » (entraînant la contraction du muscle qui a été étiré) et une voie polysynaptique entraînant le relâchement du muscle antagoniste du muscle étiré. Il est recherché systématiquement par le médecin au cours de l'examen neurologique, en particulier sur les muscles extenseurs des membres inférieurs. C’est un examen diagnostique simple, rapide à effectuer et non invasif.
 Le réflexe myotatique est un exemple de réflexe spinal ou médullaire, c'est-à-dire géré uniquement au niveau de la moelle spinale. Cela permet une réponse plus rapide que s'il devait y avoir conscientisation du mouvement du muscle et ordre conscient de se contracter. Ce réflexe est une réponse involontaire et stéréotypée.
@@ -504,7 +516,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9flexe_ost%C3%A9otendineux</t>
+          <t>Réflexe_ostéotendineux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,7 +534,9 @@
           <t>Nature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le réflexe myotatique est un réflexe de nature excitatrice :
 ses fibres afférentes entrent dans la moelle spinale : ce sont les axones ramifiés sur dans le fuseau neuromusculaire du muscle ;
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9flexe_ost%C3%A9otendineux</t>
+          <t>Réflexe_ostéotendineux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +573,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étude expérimentale du réflexe achilléen ou du réflexe rotulien (en) montre qu'interviennent successivement :
 des récepteurs sensoriels (les fibres Ia) capables de détecter un étirement du muscle et de convertir ce stimulus en un message nerveux afférent sensitif : les fuseaux neuromusculaires ;
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9flexe_ost%C3%A9otendineux</t>
+          <t>Réflexe_ostéotendineux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,23 +611,15 @@
           <t>Organisation de l'arc réflexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ensemble des acteurs intervenant dans ce mécanisme (récepteur-voie afférente-centre nerveux-voie efférente-effecteur) constitue un arc réflexe. Dans ce cas, le centre étant la moelle spinale, le réflexe est qualifié de médullaire. Il est monosynaptique : une seule synapse (entre le neurone sensitif et le motoneurone) existe dans l'arc réflexe.
 En fait, le message nerveux est un potentiel global du nerf, somme algébrique de tous les potentiels d'action se propageant le long des différentes fibres nerveuses (dendrites et axones) constituant le nerf. Le nerf fémoral qui intervient lors du réflexe rotulien est un nerf mixte : il possède à la fois des fibres sensitives (dendrites issues des fuseaux neuromusculaires) et des fibres motrices (axones des motoneurones).
 L'excitation des motoneurones innervant un muscle donné (ici, le muscle extenseur de la jambe) s'accompagne toujours de l'inhibition des motoneurones (synapse inhibitrice) innervant les muscles antagonistes (ici, les muscles fléchisseurs de la jambe).
 Les motoneurones sont reliés à l'encéphale par des voies descendantes (contrôle du réflexe, par un acte volontaire). Ces mécanismes sont différents du réflexe.
 Le réflexe myotatique met en jeu un arc réflexe qui comporte cinq éléments : un récepteur, une voie afférente, un centre d'intégration, une voie efférente et un effecteur.
-Récepteur
-Ce sont les fuseaux neuromusculaires. Ils sont des récepteurs capables de détecter l'étirement du muscle et le convertir en stimulus. On distingue deux types : les récepteurs primaires (ou fibre intrafusale à sac nucléaire) et les récepteurs secondaires (ou fibre intrafusale à chaîne nucléaire). La différence de ces fibres est dans leur fonctionnement : les récepteurs primaires sont sensibles à la fois à l’allongement du muscle et à la vitesse de cet allongement, alors que les récepteurs secondaires n'interviennent que dans l'encodage du degré d'allongement.
-Voie afférente
-Ce sont des fibres sensitives qui partent à partir du fuseau. On distingue deux types, selon l'origine où ces fibres prennent naissance. En effet, les fibres Ia prennent naissance à partir des récepteurs primaires et secondaires alors que les fibres II prennent naissance à partir des récepteurs secondaires seulement. Le type de la fibre (myélinisée et de gros calibre) reste cependant le même.(le « a » de l'appellation « fibres Ia » permet de ne pas confondre les deux types de fibre I, le type Ib étant la voie afférente d'un autre réflexe médullaire : le réflexe tendineux) 
-Centre d'intégration
-C'est le motoneurone alpha qui se trouve dans la corne antérieur du segment médullaire correspondant au muscle étiré.
-Voie efférente
-Ce sont des fibres myélinisées et de grand diamètre qui correspondent aux axones des motoneurone alpha.
-Effecteur
-C'est le même muscle qui a été étiré au départ.
 </t>
         </is>
       </c>
@@ -622,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9flexe_ost%C3%A9otendineux</t>
+          <t>Réflexe_ostéotendineux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,10 +645,197 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Organisation de l'arc réflexe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Récepteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont les fuseaux neuromusculaires. Ils sont des récepteurs capables de détecter l'étirement du muscle et le convertir en stimulus. On distingue deux types : les récepteurs primaires (ou fibre intrafusale à sac nucléaire) et les récepteurs secondaires (ou fibre intrafusale à chaîne nucléaire). La différence de ces fibres est dans leur fonctionnement : les récepteurs primaires sont sensibles à la fois à l’allongement du muscle et à la vitesse de cet allongement, alors que les récepteurs secondaires n'interviennent que dans l'encodage du degré d'allongement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Réflexe_ostéotendineux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9flexe_ost%C3%A9otendineux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Organisation de l'arc réflexe</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Voie afférente</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des fibres sensitives qui partent à partir du fuseau. On distingue deux types, selon l'origine où ces fibres prennent naissance. En effet, les fibres Ia prennent naissance à partir des récepteurs primaires et secondaires alors que les fibres II prennent naissance à partir des récepteurs secondaires seulement. Le type de la fibre (myélinisée et de gros calibre) reste cependant le même.(le « a » de l'appellation « fibres Ia » permet de ne pas confondre les deux types de fibre I, le type Ib étant la voie afférente d'un autre réflexe médullaire : le réflexe tendineux) 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Réflexe_ostéotendineux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9flexe_ost%C3%A9otendineux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Organisation de l'arc réflexe</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Centre d'intégration</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le motoneurone alpha qui se trouve dans la corne antérieur du segment médullaire correspondant au muscle étiré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Réflexe_ostéotendineux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9flexe_ost%C3%A9otendineux</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Organisation de l'arc réflexe</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Voie efférente</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des fibres myélinisées et de grand diamètre qui correspondent aux axones des motoneurone alpha.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Réflexe_ostéotendineux</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9flexe_ost%C3%A9otendineux</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Organisation de l'arc réflexe</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Effecteur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le même muscle qui a été étiré au départ.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Réflexe_ostéotendineux</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9flexe_ost%C3%A9otendineux</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Technique de recherche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour mettre en évidence les réflexes ostéotendineux, le sujet doit être en complet relâchement musculaire. Parfois ce relâchement est difficile à obtenir chez certains patients et le médecin peut alors :
 utiliser la manœuvre de Jendrassik qui consiste à demander au patient d’effectuer une contraction musculaire active dans un territoire à distance (augmentation du tonus gamma qui permet de pré-dépolariser les fibres nerveuses). Par exemple d’effectuer une forte traction sur ses mains lors de la recherche du réflexe du ligament rotulien ;
@@ -650,31 +845,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>R%C3%A9flexe_ost%C3%A9otendineux</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9flexe_ost%C3%A9otendineux</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Réflexe_ostéotendineux</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9flexe_ost%C3%A9otendineux</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Signification clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Tout d’abord, il faut garder à l’idée que même chez les sujets normaux, les réponses aux réflexes recherchés peuvent être variables.
 Par l’étude des différents réflexes on cherche à diagnostiquer l’intégrité des fibres nerveuses correspondantes.
